--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>[Quiz] Interface and Abstract Class</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>[Quiz] Clean Code</t>
   </si>
@@ -39,9 +36,6 @@
   </si>
   <si>
     <t>[Quiz] Stack và Queue</t>
-  </si>
-  <si>
-    <t>[Bài giảng] Abstract class và Interface</t>
   </si>
   <si>
     <t>[Bài giảng] Clean Code</t>
@@ -56,9 +50,6 @@
     <t>[Bài đọc] Cấu trúc Stack</t>
   </si>
   <si>
-    <t>[Bài giảng] Object Oriented Design</t>
-  </si>
-  <si>
     <t>[Bài giảng] Refactoring</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
   </si>
   <si>
     <t>[Bài đọc] Cấu trúc Queue</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Lớp Object</t>
   </si>
   <si>
     <t>[Bài đọc] Clean Code</t>
@@ -86,9 +74,6 @@
     <t>[Bài đọc] Cây tìm kiếm nhị phân (BST-Binary Search Tree)</t>
   </si>
   <si>
-    <t>[Bài đọc] Phương thức trừu tượng</t>
-  </si>
-  <si>
     <t>[Bài đọc] Giới thiệu JUnit</t>
   </si>
   <si>
@@ -98,34 +83,10 @@
     <t>[Bài đọc] Cấu trúc dữ liệu cây</t>
   </si>
   <si>
-    <t>[Bài đọc] Lớp trừu tượng</t>
-  </si>
-  <si>
     <t>[Bài đọc] Sử dụng JUnit</t>
   </si>
   <si>
     <t>[Bài đọc] Danh sách liên kết</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Lớp trừu tượng (Abstract Classes)</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Interface</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Giao diện (Interfaces)</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Giao diện Comparable</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Giao diện Cloneable</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Interfaces vs. Abstract Classes</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Ví dụ Interfaces vs. Abstract Classes</t>
   </si>
   <si>
     <t>[Thực hành] Refactoring - đổi tên biến và tách hằng</t>
@@ -188,31 +149,16 @@
     <t>[Optional] [Thực hành] Triển khai Stack sử dụng mảng</t>
   </si>
   <si>
-    <t>[Thực hành] Lớp Animal và interface Edible</t>
-  </si>
-  <si>
     <t>[Optional] [Bài tập] Chuyển đổi từ hệ thập phân sang hệ nhị phân</t>
-  </si>
-  <si>
-    <t>[Thực hành] triển khai interface 'Comparable' cho các lớp hình học</t>
   </si>
   <si>
     <t>[Optional] [Bài tập] Kiểm tra chuỗi Palindrome sử dụng Queue</t>
   </si>
   <si>
-    <t>[Thực hành] Triển khai interface 'Comparator' để so sánh cách lớp hình học</t>
-  </si>
-  <si>
     <t>[Optional] [Bài tập] Kiểm tra dấu ngoặc trong biểu thức sử dụng Stack</t>
   </si>
   <si>
-    <t>[Bài tập ] Triển khai interface 'Resizeable' cho các lớp hình học</t>
-  </si>
-  <si>
     <t>[Optional] [Bài tập] Tổ chức dữ liệu hợp lý - Demerging sử dụng Queue</t>
-  </si>
-  <si>
-    <t>[Bài tập] triển khai interface 'Colorable' cho các lớp hình học</t>
   </si>
 </sst>
 </file>
@@ -2839,8 +2785,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2925,8 +2871,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6930,27 +6876,25 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -6963,20 +6907,18 @@
     </row>
     <row r="3" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -6989,20 +6931,18 @@
     </row>
     <row r="5" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -7015,20 +6955,18 @@
     </row>
     <row r="7" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -7041,20 +6979,18 @@
     </row>
     <row r="9" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -7067,20 +7003,18 @@
     </row>
     <row r="11" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -7093,20 +7027,18 @@
     </row>
     <row r="13" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -7119,20 +7051,18 @@
     </row>
     <row r="15" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -7144,17 +7074,15 @@
     </row>
     <row r="17" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -7166,17 +7094,15 @@
     </row>
     <row r="19" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -7187,14 +7113,12 @@
     </row>
     <row r="21" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -7204,11 +7128,9 @@
     </row>
     <row r="23" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="U23" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -7218,11 +7140,9 @@
     </row>
     <row r="25" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -7232,121 +7152,93 @@
     </row>
     <row r="27" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="U27" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="29" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="31" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
       <c r="U31" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="5:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="5:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="https://james.codegym.vn/mod/page/view.php?id=9176"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://james.codegym.vn/mod/page/view.php?id=9177"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://james.codegym.vn/mod/page/view.php?id=9179"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://james.codegym.vn/mod/page/view.php?id=9180"/>
-    <hyperlink ref="E9" r:id="rId5" display="https://james.codegym.vn/mod/page/view.php?id=9181"/>
-    <hyperlink ref="E11" r:id="rId6" display="https://james.codegym.vn/mod/page/view.php?id=13584"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://james.codegym.vn/mod/page/view.php?id=9182"/>
-    <hyperlink ref="E15" r:id="rId8" display="https://james.codegym.vn/mod/page/view.php?id=13737"/>
-    <hyperlink ref="E17" r:id="rId9" display="https://james.codegym.vn/mod/page/view.php?id=13739"/>
-    <hyperlink ref="E19" r:id="rId10" display="https://james.codegym.vn/mod/page/view.php?id=13744"/>
-    <hyperlink ref="E21" r:id="rId11" display="https://james.codegym.vn/mod/page/view.php?id=13790"/>
-    <hyperlink ref="E23" r:id="rId12" display="https://james.codegym.vn/mod/page/view.php?id=13791"/>
-    <hyperlink ref="E25" r:id="rId13" display="https://james.codegym.vn/mod/assign/view.php?id=9184"/>
-    <hyperlink ref="E27" r:id="rId14" display="https://james.codegym.vn/mod/assign/view.php?id=9185"/>
-    <hyperlink ref="E29" r:id="rId15" display="https://james.codegym.vn/mod/assign/view.php?id=9186"/>
-    <hyperlink ref="E31" r:id="rId16" display="https://james.codegym.vn/mod/assign/view.php?id=9187"/>
-    <hyperlink ref="E33" r:id="rId17" display="https://james.codegym.vn/mod/assign/view.php?id=9188"/>
-    <hyperlink ref="E35" r:id="rId18" display="https://james.codegym.vn/mod/quiz/view.php?id=9183"/>
-    <hyperlink ref="I1" r:id="rId19" display="https://james.codegym.vn/mod/page/view.php?id=9189"/>
-    <hyperlink ref="I3" r:id="rId20" display="https://james.codegym.vn/mod/page/view.php?id=9190"/>
-    <hyperlink ref="I5" r:id="rId21" display="https://james.codegym.vn/mod/page/view.php?id=9812"/>
-    <hyperlink ref="I7" r:id="rId22" display="https://james.codegym.vn/mod/assign/view.php?id=9192"/>
-    <hyperlink ref="I9" r:id="rId23" display="https://james.codegym.vn/mod/assign/view.php?id=9193"/>
-    <hyperlink ref="I11" r:id="rId24" display="https://james.codegym.vn/mod/assign/view.php?id=9194"/>
-    <hyperlink ref="I13" r:id="rId25" display="https://james.codegym.vn/mod/assign/view.php?id=9195"/>
-    <hyperlink ref="I15" r:id="rId26" display="https://james.codegym.vn/mod/quiz/view.php?id=9191"/>
-    <hyperlink ref="M1" r:id="rId27" display="https://james.codegym.vn/mod/page/view.php?id=9196"/>
-    <hyperlink ref="M3" r:id="rId28" display="https://james.codegym.vn/mod/page/view.php?id=13851"/>
-    <hyperlink ref="M5" r:id="rId29" display="https://james.codegym.vn/mod/page/view.php?id=13852"/>
-    <hyperlink ref="M7" r:id="rId30" display="https://james.codegym.vn/mod/page/view.php?id=13853"/>
-    <hyperlink ref="M9" r:id="rId31" display="https://james.codegym.vn/mod/page/view.php?id=13854"/>
-    <hyperlink ref="M11" r:id="rId32" display="https://james.codegym.vn/mod/quiz/view.php?id=9197"/>
-    <hyperlink ref="M13" r:id="rId33" display="https://james.codegym.vn/mod/assign/view.php?id=9198"/>
-    <hyperlink ref="M15" r:id="rId34" display="https://james.codegym.vn/mod/assign/view.php?id=9199"/>
-    <hyperlink ref="M17" r:id="rId35" display="https://james.codegym.vn/mod/assign/view.php?id=9200"/>
-    <hyperlink ref="M19" r:id="rId36" display="https://james.codegym.vn/mod/assign/view.php?id=9201"/>
-    <hyperlink ref="M21" r:id="rId37" display="https://james.codegym.vn/mod/assign/view.php?id=9202"/>
-    <hyperlink ref="Q1" r:id="rId38" display="https://james.codegym.vn/mod/page/view.php?id=9203"/>
-    <hyperlink ref="Q3" r:id="rId39" display="https://james.codegym.vn/mod/page/view.php?id=9204"/>
-    <hyperlink ref="Q5" r:id="rId40" display="https://james.codegym.vn/mod/page/view.php?id=9205"/>
-    <hyperlink ref="Q7" r:id="rId41" display="https://james.codegym.vn/mod/page/view.php?id=9206"/>
-    <hyperlink ref="Q9" r:id="rId42" display="https://james.codegym.vn/mod/page/view.php?id=9208"/>
-    <hyperlink ref="Q11" r:id="rId43" display="https://james.codegym.vn/mod/assign/view.php?id=9210"/>
-    <hyperlink ref="Q13" r:id="rId44" display="https://james.codegym.vn/mod/assign/view.php?id=9211"/>
-    <hyperlink ref="Q15" r:id="rId45" display="https://james.codegym.vn/mod/assign/view.php?id=9212"/>
-    <hyperlink ref="Q17" r:id="rId46" display="https://james.codegym.vn/mod/assign/view.php?id=9213"/>
-    <hyperlink ref="Q19" r:id="rId47" display="https://james.codegym.vn/mod/quiz/view.php?id=9209"/>
-    <hyperlink ref="U1" r:id="rId48" display="https://james.codegym.vn/mod/page/view.php?id=9214"/>
-    <hyperlink ref="U3" r:id="rId49" display="https://james.codegym.vn/mod/page/view.php?id=9215"/>
-    <hyperlink ref="U5" r:id="rId50" display="https://james.codegym.vn/mod/page/view.php?id=9217"/>
-    <hyperlink ref="U7" r:id="rId51" display="https://james.codegym.vn/mod/page/view.php?id=9216"/>
-    <hyperlink ref="U9" r:id="rId52" display="https://james.codegym.vn/mod/assign/view.php?id=9219"/>
-    <hyperlink ref="U11" r:id="rId53" display="https://james.codegym.vn/mod/assign/view.php?id=9220"/>
-    <hyperlink ref="U13" r:id="rId54" display="https://james.codegym.vn/mod/assign/view.php?id=9221"/>
-    <hyperlink ref="U15" r:id="rId55" display="https://james.codegym.vn/mod/assign/view.php?id=9223"/>
-    <hyperlink ref="U17" r:id="rId56" display="https://james.codegym.vn/mod/assign/view.php?id=9815"/>
-    <hyperlink ref="U19" r:id="rId57" display="https://james.codegym.vn/mod/quiz/view.php?id=9218"/>
-    <hyperlink ref="U21" r:id="rId58" display="https://james.codegym.vn/mod/assign/view.php?id=9224"/>
-    <hyperlink ref="U23" r:id="rId59" display="https://james.codegym.vn/mod/assign/view.php?id=9225"/>
-    <hyperlink ref="U25" r:id="rId60" display="https://james.codegym.vn/mod/assign/view.php?id=9226"/>
-    <hyperlink ref="U27" r:id="rId61" display="https://james.codegym.vn/mod/assign/view.php?id=9227"/>
-    <hyperlink ref="U29" r:id="rId62" display="https://james.codegym.vn/mod/assign/view.php?id=9228"/>
-    <hyperlink ref="U31" r:id="rId63" display="https://james.codegym.vn/mod/assign/view.php?id=9229"/>
+    <hyperlink ref="I1" r:id="rId1" display="https://james.codegym.vn/mod/page/view.php?id=9189"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://james.codegym.vn/mod/page/view.php?id=9190"/>
+    <hyperlink ref="I5" r:id="rId3" display="https://james.codegym.vn/mod/page/view.php?id=9812"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://james.codegym.vn/mod/assign/view.php?id=9192"/>
+    <hyperlink ref="I9" r:id="rId5" display="https://james.codegym.vn/mod/assign/view.php?id=9193"/>
+    <hyperlink ref="I11" r:id="rId6" display="https://james.codegym.vn/mod/assign/view.php?id=9194"/>
+    <hyperlink ref="I13" r:id="rId7" display="https://james.codegym.vn/mod/assign/view.php?id=9195"/>
+    <hyperlink ref="I15" r:id="rId8" display="https://james.codegym.vn/mod/quiz/view.php?id=9191"/>
+    <hyperlink ref="M1" r:id="rId9" display="https://james.codegym.vn/mod/page/view.php?id=9196"/>
+    <hyperlink ref="M3" r:id="rId10" display="https://james.codegym.vn/mod/page/view.php?id=13851"/>
+    <hyperlink ref="M5" r:id="rId11" display="https://james.codegym.vn/mod/page/view.php?id=13852"/>
+    <hyperlink ref="M7" r:id="rId12" display="https://james.codegym.vn/mod/page/view.php?id=13853"/>
+    <hyperlink ref="M9" r:id="rId13" display="https://james.codegym.vn/mod/page/view.php?id=13854"/>
+    <hyperlink ref="M11" r:id="rId14" display="https://james.codegym.vn/mod/quiz/view.php?id=9197"/>
+    <hyperlink ref="M13" r:id="rId15" display="https://james.codegym.vn/mod/assign/view.php?id=9198"/>
+    <hyperlink ref="M15" r:id="rId16" display="https://james.codegym.vn/mod/assign/view.php?id=9199"/>
+    <hyperlink ref="M17" r:id="rId17" display="https://james.codegym.vn/mod/assign/view.php?id=9200"/>
+    <hyperlink ref="M19" r:id="rId18" display="https://james.codegym.vn/mod/assign/view.php?id=9201"/>
+    <hyperlink ref="M21" r:id="rId19" display="https://james.codegym.vn/mod/assign/view.php?id=9202"/>
+    <hyperlink ref="Q1" r:id="rId20" display="https://james.codegym.vn/mod/page/view.php?id=9203"/>
+    <hyperlink ref="Q3" r:id="rId21" display="https://james.codegym.vn/mod/page/view.php?id=9204"/>
+    <hyperlink ref="Q5" r:id="rId22" display="https://james.codegym.vn/mod/page/view.php?id=9205"/>
+    <hyperlink ref="Q7" r:id="rId23" display="https://james.codegym.vn/mod/page/view.php?id=9206"/>
+    <hyperlink ref="Q9" r:id="rId24" display="https://james.codegym.vn/mod/page/view.php?id=9208"/>
+    <hyperlink ref="Q11" r:id="rId25" display="https://james.codegym.vn/mod/assign/view.php?id=9210"/>
+    <hyperlink ref="Q13" r:id="rId26" display="https://james.codegym.vn/mod/assign/view.php?id=9211"/>
+    <hyperlink ref="Q15" r:id="rId27" display="https://james.codegym.vn/mod/assign/view.php?id=9212"/>
+    <hyperlink ref="Q17" r:id="rId28" display="https://james.codegym.vn/mod/assign/view.php?id=9213"/>
+    <hyperlink ref="Q19" r:id="rId29" display="https://james.codegym.vn/mod/quiz/view.php?id=9209"/>
+    <hyperlink ref="U1" r:id="rId30" display="https://james.codegym.vn/mod/page/view.php?id=9214"/>
+    <hyperlink ref="U3" r:id="rId31" display="https://james.codegym.vn/mod/page/view.php?id=9215"/>
+    <hyperlink ref="U5" r:id="rId32" display="https://james.codegym.vn/mod/page/view.php?id=9217"/>
+    <hyperlink ref="U7" r:id="rId33" display="https://james.codegym.vn/mod/page/view.php?id=9216"/>
+    <hyperlink ref="U9" r:id="rId34" display="https://james.codegym.vn/mod/assign/view.php?id=9219"/>
+    <hyperlink ref="U11" r:id="rId35" display="https://james.codegym.vn/mod/assign/view.php?id=9220"/>
+    <hyperlink ref="U13" r:id="rId36" display="https://james.codegym.vn/mod/assign/view.php?id=9221"/>
+    <hyperlink ref="U15" r:id="rId37" display="https://james.codegym.vn/mod/assign/view.php?id=9223"/>
+    <hyperlink ref="U17" r:id="rId38" display="https://james.codegym.vn/mod/assign/view.php?id=9815"/>
+    <hyperlink ref="U19" r:id="rId39" display="https://james.codegym.vn/mod/quiz/view.php?id=9218"/>
+    <hyperlink ref="U21" r:id="rId40" display="https://james.codegym.vn/mod/assign/view.php?id=9224"/>
+    <hyperlink ref="U23" r:id="rId41" display="https://james.codegym.vn/mod/assign/view.php?id=9225"/>
+    <hyperlink ref="U25" r:id="rId42" display="https://james.codegym.vn/mod/assign/view.php?id=9226"/>
+    <hyperlink ref="U27" r:id="rId43" display="https://james.codegym.vn/mod/assign/view.php?id=9227"/>
+    <hyperlink ref="U29" r:id="rId44" display="https://james.codegym.vn/mod/assign/view.php?id=9228"/>
+    <hyperlink ref="U31" r:id="rId45" display="https://james.codegym.vn/mod/assign/view.php?id=9229"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
-  <drawing r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
+  <drawing r:id="rId47"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,123 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>[Quiz] Clean Code</t>
-  </si>
-  <si>
-    <t>[Quiz] TestFirst và TDD</t>
-  </si>
-  <si>
-    <t>[Quiz] Cấu trúc dữ liệu danh sách</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>[Quiz] Stack và Queue</t>
-  </si>
-  <si>
-    <t>[Bài giảng] Clean Code</t>
-  </si>
-  <si>
-    <t>[Bài đọc] TDD (Test Driven Development ) - Phát triển hướng kiểm thử</t>
-  </si>
-  <si>
-    <t>[Bài giảng] ArrayList</t>
   </si>
   <si>
     <t>[Bài đọc] Cấu trúc Stack</t>
   </si>
   <si>
-    <t>[Bài giảng] Refactoring</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Tổng quan về Kiểm thử và Kiểm thử tự động</t>
-  </si>
-  <si>
-    <t>[Bài giảng] LinkedList</t>
-  </si>
-  <si>
     <t>[Bài đọc] Cấu trúc Queue</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Clean Code</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Các cấp độ trong Kiểm thử</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Giới thiệu về danh sách</t>
   </si>
   <si>
     <t>[Bài đọc] Cây tìm kiếm nhị phân (BST-Binary Search Tree)</t>
   </si>
   <si>
-    <t>[Bài đọc] Giới thiệu JUnit</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Danh sách mảng</t>
-  </si>
-  <si>
     <t>[Bài đọc] Cấu trúc dữ liệu cây</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Sử dụng JUnit</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Danh sách liên kết</t>
-  </si>
-  <si>
-    <t>[Thực hành] Refactoring - đổi tên biến và tách hằng</t>
-  </si>
-  <si>
-    <t>[Thực hành] Refactoring - tách biến</t>
   </si>
   <si>
     <t>[Thực hành] Triển khai stack sử dụng lớp LinkedList trong thư viện java.util</t>
   </si>
   <si>
-    <t>[Thực hành] Refactoring - tách phương thức</t>
-  </si>
-  <si>
-    <t>[Thực hành] Triển khai lớp List đơn giản</t>
-  </si>
-  <si>
     <t>[Thực hành] Triển khai Queue sử dụng danh sách liên kết</t>
-  </si>
-  <si>
-    <t>[Bài tập] Refactoring</t>
-  </si>
-  <si>
-    <t>[Thực hành] Ứng dụng máy tính đơn giản</t>
-  </si>
-  <si>
-    <t>[Thực hành] Triển khai lớp LinkedList đơn giản</t>
   </si>
   <si>
     <t>[Bài tập] Đảo ngược phần tử trong mảng số nguyên sử dụng Stack</t>
   </si>
   <si>
-    <t>[Thực hành] Tìm giá trị tuyệt đối</t>
-  </si>
-  <si>
-    <t>[Bài tập] Triển khai các phương thức của ArrayList theo thư viện java.util.ArrayList</t>
-  </si>
-  <si>
     <t>[Bài tập] Đếm số lần xuất hiện của mỗi từ trong một chuỗi sử dụng Map</t>
   </si>
   <si>
-    <t>[Bài tập] Tính ngày tiếp theo</t>
-  </si>
-  <si>
-    <t>[Bài tập] Triển khai các phương thức của LinkedList theo thư viện java.util.LinkedList</t>
-  </si>
-  <si>
     <t>[Bài tập] Triển khai Queue sử dụng danh sách liên kết vòng</t>
-  </si>
-  <si>
-    <t>[Bài tập] Phân loại tam giác</t>
-  </si>
-  <si>
-    <t>[Bài tập] chương trình tính kết quả FizzBuzz</t>
   </si>
   <si>
     <t>[Optional] [Thực hành] Triển khai Queue sử dụng mảng</t>
@@ -6876,25 +6789,19 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -6905,20 +6812,14 @@
       <c r="Q2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -6932,17 +6833,11 @@
     <row r="5" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -6953,20 +6848,14 @@
       <c r="Q6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="Q7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6980,17 +6869,11 @@
     <row r="9" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="Q9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -7004,17 +6887,11 @@
     <row r="11" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -7028,17 +6905,11 @@
     <row r="13" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -7052,17 +6923,11 @@
     <row r="15" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="I15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -7072,17 +6937,13 @@
       <c r="Q16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17" s="1"/>
+      <c r="Q17" s="1"/>
       <c r="U17" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -7092,17 +6953,13 @@
       <c r="Q18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="M19" s="1"/>
+      <c r="Q19" s="1"/>
       <c r="U19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -7114,11 +6971,9 @@
     <row r="21" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="M21" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="M21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -7130,7 +6985,7 @@
       <c r="A23" s="1"/>
       <c r="E23" s="1"/>
       <c r="U23" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -7142,7 +6997,7 @@
       <c r="A25" s="1"/>
       <c r="E25" s="1"/>
       <c r="U25" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -7154,7 +7009,7 @@
       <c r="A27" s="1"/>
       <c r="E27" s="1"/>
       <c r="U27" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -7164,7 +7019,7 @@
     <row r="29" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -7174,7 +7029,7 @@
     <row r="31" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="U31" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -7191,54 +7046,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" display="https://james.codegym.vn/mod/page/view.php?id=9189"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://james.codegym.vn/mod/page/view.php?id=9190"/>
-    <hyperlink ref="I5" r:id="rId3" display="https://james.codegym.vn/mod/page/view.php?id=9812"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://james.codegym.vn/mod/assign/view.php?id=9192"/>
-    <hyperlink ref="I9" r:id="rId5" display="https://james.codegym.vn/mod/assign/view.php?id=9193"/>
-    <hyperlink ref="I11" r:id="rId6" display="https://james.codegym.vn/mod/assign/view.php?id=9194"/>
-    <hyperlink ref="I13" r:id="rId7" display="https://james.codegym.vn/mod/assign/view.php?id=9195"/>
-    <hyperlink ref="I15" r:id="rId8" display="https://james.codegym.vn/mod/quiz/view.php?id=9191"/>
-    <hyperlink ref="M1" r:id="rId9" display="https://james.codegym.vn/mod/page/view.php?id=9196"/>
-    <hyperlink ref="M3" r:id="rId10" display="https://james.codegym.vn/mod/page/view.php?id=13851"/>
-    <hyperlink ref="M5" r:id="rId11" display="https://james.codegym.vn/mod/page/view.php?id=13852"/>
-    <hyperlink ref="M7" r:id="rId12" display="https://james.codegym.vn/mod/page/view.php?id=13853"/>
-    <hyperlink ref="M9" r:id="rId13" display="https://james.codegym.vn/mod/page/view.php?id=13854"/>
-    <hyperlink ref="M11" r:id="rId14" display="https://james.codegym.vn/mod/quiz/view.php?id=9197"/>
-    <hyperlink ref="M13" r:id="rId15" display="https://james.codegym.vn/mod/assign/view.php?id=9198"/>
-    <hyperlink ref="M15" r:id="rId16" display="https://james.codegym.vn/mod/assign/view.php?id=9199"/>
-    <hyperlink ref="M17" r:id="rId17" display="https://james.codegym.vn/mod/assign/view.php?id=9200"/>
-    <hyperlink ref="M19" r:id="rId18" display="https://james.codegym.vn/mod/assign/view.php?id=9201"/>
-    <hyperlink ref="M21" r:id="rId19" display="https://james.codegym.vn/mod/assign/view.php?id=9202"/>
-    <hyperlink ref="Q1" r:id="rId20" display="https://james.codegym.vn/mod/page/view.php?id=9203"/>
-    <hyperlink ref="Q3" r:id="rId21" display="https://james.codegym.vn/mod/page/view.php?id=9204"/>
-    <hyperlink ref="Q5" r:id="rId22" display="https://james.codegym.vn/mod/page/view.php?id=9205"/>
-    <hyperlink ref="Q7" r:id="rId23" display="https://james.codegym.vn/mod/page/view.php?id=9206"/>
-    <hyperlink ref="Q9" r:id="rId24" display="https://james.codegym.vn/mod/page/view.php?id=9208"/>
-    <hyperlink ref="Q11" r:id="rId25" display="https://james.codegym.vn/mod/assign/view.php?id=9210"/>
-    <hyperlink ref="Q13" r:id="rId26" display="https://james.codegym.vn/mod/assign/view.php?id=9211"/>
-    <hyperlink ref="Q15" r:id="rId27" display="https://james.codegym.vn/mod/assign/view.php?id=9212"/>
-    <hyperlink ref="Q17" r:id="rId28" display="https://james.codegym.vn/mod/assign/view.php?id=9213"/>
-    <hyperlink ref="Q19" r:id="rId29" display="https://james.codegym.vn/mod/quiz/view.php?id=9209"/>
-    <hyperlink ref="U1" r:id="rId30" display="https://james.codegym.vn/mod/page/view.php?id=9214"/>
-    <hyperlink ref="U3" r:id="rId31" display="https://james.codegym.vn/mod/page/view.php?id=9215"/>
-    <hyperlink ref="U5" r:id="rId32" display="https://james.codegym.vn/mod/page/view.php?id=9217"/>
-    <hyperlink ref="U7" r:id="rId33" display="https://james.codegym.vn/mod/page/view.php?id=9216"/>
-    <hyperlink ref="U9" r:id="rId34" display="https://james.codegym.vn/mod/assign/view.php?id=9219"/>
-    <hyperlink ref="U11" r:id="rId35" display="https://james.codegym.vn/mod/assign/view.php?id=9220"/>
-    <hyperlink ref="U13" r:id="rId36" display="https://james.codegym.vn/mod/assign/view.php?id=9221"/>
-    <hyperlink ref="U15" r:id="rId37" display="https://james.codegym.vn/mod/assign/view.php?id=9223"/>
-    <hyperlink ref="U17" r:id="rId38" display="https://james.codegym.vn/mod/assign/view.php?id=9815"/>
-    <hyperlink ref="U19" r:id="rId39" display="https://james.codegym.vn/mod/quiz/view.php?id=9218"/>
-    <hyperlink ref="U21" r:id="rId40" display="https://james.codegym.vn/mod/assign/view.php?id=9224"/>
-    <hyperlink ref="U23" r:id="rId41" display="https://james.codegym.vn/mod/assign/view.php?id=9225"/>
-    <hyperlink ref="U25" r:id="rId42" display="https://james.codegym.vn/mod/assign/view.php?id=9226"/>
-    <hyperlink ref="U27" r:id="rId43" display="https://james.codegym.vn/mod/assign/view.php?id=9227"/>
-    <hyperlink ref="U29" r:id="rId44" display="https://james.codegym.vn/mod/assign/view.php?id=9228"/>
-    <hyperlink ref="U31" r:id="rId45" display="https://james.codegym.vn/mod/assign/view.php?id=9229"/>
+    <hyperlink ref="U1" r:id="rId1" display="https://james.codegym.vn/mod/page/view.php?id=9214"/>
+    <hyperlink ref="U3" r:id="rId2" display="https://james.codegym.vn/mod/page/view.php?id=9215"/>
+    <hyperlink ref="U5" r:id="rId3" display="https://james.codegym.vn/mod/page/view.php?id=9217"/>
+    <hyperlink ref="U7" r:id="rId4" display="https://james.codegym.vn/mod/page/view.php?id=9216"/>
+    <hyperlink ref="U9" r:id="rId5" display="https://james.codegym.vn/mod/assign/view.php?id=9219"/>
+    <hyperlink ref="U11" r:id="rId6" display="https://james.codegym.vn/mod/assign/view.php?id=9220"/>
+    <hyperlink ref="U13" r:id="rId7" display="https://james.codegym.vn/mod/assign/view.php?id=9221"/>
+    <hyperlink ref="U15" r:id="rId8" display="https://james.codegym.vn/mod/assign/view.php?id=9223"/>
+    <hyperlink ref="U17" r:id="rId9" display="https://james.codegym.vn/mod/assign/view.php?id=9815"/>
+    <hyperlink ref="U19" r:id="rId10" display="https://james.codegym.vn/mod/quiz/view.php?id=9218"/>
+    <hyperlink ref="U21" r:id="rId11" display="https://james.codegym.vn/mod/assign/view.php?id=9224"/>
+    <hyperlink ref="U23" r:id="rId12" display="https://james.codegym.vn/mod/assign/view.php?id=9225"/>
+    <hyperlink ref="U25" r:id="rId13" display="https://james.codegym.vn/mod/assign/view.php?id=9226"/>
+    <hyperlink ref="U27" r:id="rId14" display="https://james.codegym.vn/mod/assign/view.php?id=9227"/>
+    <hyperlink ref="U29" r:id="rId15" display="https://james.codegym.vn/mod/assign/view.php?id=9228"/>
+    <hyperlink ref="U31" r:id="rId16" display="https://james.codegym.vn/mod/assign/view.php?id=9229"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
-  <drawing r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,56 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>[Quiz] Stack và Queue</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Cấu trúc Stack</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Cấu trúc Queue</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Cây tìm kiếm nhị phân (BST-Binary Search Tree)</t>
-  </si>
-  <si>
-    <t>[Bài đọc] Cấu trúc dữ liệu cây</t>
-  </si>
-  <si>
-    <t>[Thực hành] Triển khai stack sử dụng lớp LinkedList trong thư viện java.util</t>
-  </si>
-  <si>
-    <t>[Thực hành] Triển khai Queue sử dụng danh sách liên kết</t>
-  </si>
-  <si>
-    <t>[Bài tập] Đảo ngược phần tử trong mảng số nguyên sử dụng Stack</t>
-  </si>
-  <si>
-    <t>[Bài tập] Đếm số lần xuất hiện của mỗi từ trong một chuỗi sử dụng Map</t>
-  </si>
-  <si>
-    <t>[Bài tập] Triển khai Queue sử dụng danh sách liên kết vòng</t>
-  </si>
-  <si>
-    <t>[Optional] [Thực hành] Triển khai Queue sử dụng mảng</t>
-  </si>
-  <si>
-    <t>[Optional] [Thực hành] Triển khai Stack sử dụng mảng</t>
-  </si>
-  <si>
-    <t>[Optional] [Bài tập] Chuyển đổi từ hệ thập phân sang hệ nhị phân</t>
-  </si>
-  <si>
-    <t>[Optional] [Bài tập] Kiểm tra chuỗi Palindrome sử dụng Queue</t>
-  </si>
-  <si>
-    <t>[Optional] [Bài tập] Kiểm tra dấu ngoặc trong biểu thức sử dụng Stack</t>
-  </si>
-  <si>
-    <t>[Optional] [Bài tập] Tổ chức dữ liệu hợp lý - Demerging sử dụng Queue</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -160,8 +111,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -246,8 +197,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -332,8 +283,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -418,8 +369,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -504,8 +455,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -590,8 +541,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -676,8 +627,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -762,8 +713,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -848,8 +799,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -934,8 +885,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1020,8 +971,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1106,8 +1057,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1192,8 +1143,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1278,8 +1229,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1322,8 +1273,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1408,8 +1359,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1494,8 +1445,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1580,8 +1531,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1666,8 +1617,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1752,8 +1703,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1838,8 +1789,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1924,8 +1875,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2010,8 +1961,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2096,8 +2047,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2182,8 +2133,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2268,8 +2219,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2354,8 +2305,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2440,8 +2391,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2526,8 +2477,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2612,8 +2563,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2828,8 +2779,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2914,8 +2865,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3000,8 +2951,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3086,8 +3037,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3172,8 +3123,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3258,8 +3209,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3344,8 +3295,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3430,8 +3381,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3474,8 +3425,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3560,8 +3511,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3646,8 +3597,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3732,8 +3683,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3818,8 +3769,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3904,8 +3855,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3990,8 +3941,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4076,8 +4027,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4162,8 +4113,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4248,8 +4199,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4334,8 +4285,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4378,8 +4329,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4464,8 +4415,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4550,8 +4501,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4636,8 +4587,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4722,8 +4673,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4808,8 +4759,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4894,8 +4845,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4980,8 +4931,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5066,8 +5017,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5152,8 +5103,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5196,8 +5147,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5282,8 +5233,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5368,8 +5319,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5454,8 +5405,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5540,8 +5491,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5626,8 +5577,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5712,8 +5663,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5798,8 +5749,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5884,8 +5835,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5970,8 +5921,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6056,8 +6007,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6142,8 +6093,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6228,8 +6179,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6314,8 +6265,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6400,8 +6351,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6486,8 +6437,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6501,6 +6452,1210 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="12192000" y="28895040"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="Completed: [Bải giảng] Data Structures &amp; Java Collection Framework. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2" descr="https://james.codegym.vn/theme/image.php/remui/page/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1828800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3" descr="Completed: [Bài đọc] Java Collections Framework. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4" descr="https://james.codegym.vn/theme/image.php/remui/page/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3108960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 5" descr="Completed: [Bài đọc] Cấu trúc Map trong Java Collection Framework. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4754880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 6" descr="https://james.codegym.vn/theme/image.php/remui/page/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4937760"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7" descr="Completed: [Bài đọc] Cấu trúc Tree trong Java Collection Framework. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6583680"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 8" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6766560"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 9" descr="Completed: [Thực hành] Sử dụng HashMap, LinkedHashMap, TreeMap để lưu danh sách sinh viên theo độ tuổi. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9509760"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 10" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9692640"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 11" descr="Completed: [Thực hành] Phân biệt giữa HashMap và HashSet. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11338560"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 12" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11521440"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 13" descr="Not completed: [Thực hành] Sắp xếp với Comparable và Comparator. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13167360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 14" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13350240"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 15" descr="Not completed: [Bài tập] Luyện tập sử dụng ArrayList, LinkedList trong Java Collection Framework. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15544800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 16" descr="https://james.codegym.vn/theme/image.php/remui/quiz/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15727680"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 17" descr="Completed: [Quiz] Map và Tree. Select to mark as not complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17007840"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 18" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17190720"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 19" descr="Not completed: [Optional] [Thực hành] Cài đặt cây tìm kiếm nhị phân. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18653760"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 20" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18836640"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 21" descr="Not completed: [Optional] [Bài tập] Cài đặt thao tác duyệt theo thứ tự postorder trong Binary Search Tree. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 22" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21396960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 23" descr="Not completed: [Optional] [Bài tập] Cài đặt thao tác xoá trong Binary Search Tree. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23225760"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 24" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23408640"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 25" descr="Not completed: [Optional] [Bài tập] Cài đặt thao tác duyệt theo thứ tự preorder trong Binary Search Tree. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25786080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 26" descr="https://james.codegym.vn/theme/image.php/remui/assign/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25968960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 27" descr="Not completed: [Optional] [Bài tập] Cài đặt thao tác tìm kiếm trong Binary Search Tree. Select to mark as complete."/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27980640"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 28" descr="https://james.codegym.vn/theme/image.php/remui/page/1675179018/icon">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28163520"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6788,21 +7943,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="U26" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="E1" s="1"/>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -6812,15 +7965,13 @@
       <c r="Q2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
       <c r="I3" s="1"/>
       <c r="M3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -6830,15 +7981,13 @@
       <c r="Q4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" s="1"/>
       <c r="M5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -6848,15 +7997,13 @@
       <c r="Q6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" s="1"/>
       <c r="M7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -6866,15 +8013,13 @@
       <c r="Q8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="E9" s="1"/>
       <c r="I9" s="1"/>
       <c r="M9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="U9" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -6884,15 +8029,13 @@
       <c r="Q10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="I11" s="1"/>
       <c r="M11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -6902,15 +8045,13 @@
       <c r="Q12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="E13" s="1"/>
       <c r="I13" s="1"/>
       <c r="M13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="U13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -6920,15 +8061,13 @@
       <c r="Q14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="E15" s="1"/>
       <c r="I15" s="1"/>
       <c r="M15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -6937,14 +8076,12 @@
       <c r="Q16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="E17" s="1"/>
       <c r="M17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="U17" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -6953,14 +8090,12 @@
       <c r="Q18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
       <c r="M19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -6968,69 +8103,59 @@
       <c r="M20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="E22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="U23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="E24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="U25" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="E26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="U27" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="E28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="U29" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
-      <c r="U31" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
@@ -7045,26 +8170,8 @@
       <c r="E35" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" r:id="rId1" display="https://james.codegym.vn/mod/page/view.php?id=9214"/>
-    <hyperlink ref="U3" r:id="rId2" display="https://james.codegym.vn/mod/page/view.php?id=9215"/>
-    <hyperlink ref="U5" r:id="rId3" display="https://james.codegym.vn/mod/page/view.php?id=9217"/>
-    <hyperlink ref="U7" r:id="rId4" display="https://james.codegym.vn/mod/page/view.php?id=9216"/>
-    <hyperlink ref="U9" r:id="rId5" display="https://james.codegym.vn/mod/assign/view.php?id=9219"/>
-    <hyperlink ref="U11" r:id="rId6" display="https://james.codegym.vn/mod/assign/view.php?id=9220"/>
-    <hyperlink ref="U13" r:id="rId7" display="https://james.codegym.vn/mod/assign/view.php?id=9221"/>
-    <hyperlink ref="U15" r:id="rId8" display="https://james.codegym.vn/mod/assign/view.php?id=9223"/>
-    <hyperlink ref="U17" r:id="rId9" display="https://james.codegym.vn/mod/assign/view.php?id=9815"/>
-    <hyperlink ref="U19" r:id="rId10" display="https://james.codegym.vn/mod/quiz/view.php?id=9218"/>
-    <hyperlink ref="U21" r:id="rId11" display="https://james.codegym.vn/mod/assign/view.php?id=9224"/>
-    <hyperlink ref="U23" r:id="rId12" display="https://james.codegym.vn/mod/assign/view.php?id=9225"/>
-    <hyperlink ref="U25" r:id="rId13" display="https://james.codegym.vn/mod/assign/view.php?id=9226"/>
-    <hyperlink ref="U27" r:id="rId14" display="https://james.codegym.vn/mod/assign/view.php?id=9227"/>
-    <hyperlink ref="U29" r:id="rId15" display="https://james.codegym.vn/mod/assign/view.php?id=9228"/>
-    <hyperlink ref="U31" r:id="rId16" display="https://james.codegym.vn/mod/assign/view.php?id=9229"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>